--- a/VeriSet.xlsx
+++ b/VeriSet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betul\Desktop\orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>hamster</t>
-  </si>
-  <si>
-    <t>swan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Bacak Sayısı</t>
   </si>
@@ -80,9 +74,6 @@
     <t>Kerevit</t>
   </si>
   <si>
-    <t>Karga</t>
-  </si>
-  <si>
     <t>Geyik</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Yunus</t>
   </si>
   <si>
-    <t>Güvercin</t>
-  </si>
-  <si>
     <t>Ördek</t>
   </si>
   <si>
@@ -149,18 +137,12 @@
     <t>Uğur Böceği</t>
   </si>
   <si>
-    <t>leopar</t>
-  </si>
-  <si>
     <t>Aslan</t>
   </si>
   <si>
     <t>Istakoz</t>
   </si>
   <si>
-    <t>Vizon Balinası</t>
-  </si>
-  <si>
     <t>Köstebek</t>
   </si>
   <si>
@@ -173,9 +155,6 @@
     <t>Deve Kuşu</t>
   </si>
   <si>
-    <t>MuhabbetKuşu</t>
-  </si>
-  <si>
     <t>Penguen</t>
   </si>
   <si>
@@ -185,21 +164,12 @@
     <t>Kokarca</t>
   </si>
   <si>
-    <t>Midilli</t>
-  </si>
-  <si>
-    <t>Rakun Köpeği</t>
-  </si>
-  <si>
     <t>Akrep</t>
   </si>
   <si>
     <t>Denizatı</t>
   </si>
   <si>
-    <t>Yırtıcı Martı</t>
-  </si>
-  <si>
     <t>Solucan</t>
   </si>
   <si>
@@ -221,13 +191,13 @@
     <t>Vampir</t>
   </si>
   <si>
-    <t>tarla faresi</t>
-  </si>
-  <si>
     <t>Yaban Arısı</t>
   </si>
   <si>
     <t>Kurt</t>
+  </si>
+  <si>
+    <t>Fare</t>
   </si>
 </sst>
 </file>
@@ -556,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,15 +539,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -585,7 +555,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -593,7 +563,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -601,7 +571,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -609,7 +579,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -617,7 +587,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -625,7 +595,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -633,7 +603,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -641,7 +611,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -649,7 +619,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -657,7 +627,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -665,7 +635,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -673,7 +643,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -681,7 +651,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -689,23 +659,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -713,23 +683,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -737,31 +707,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -769,15 +739,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -785,63 +755,63 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -849,7 +819,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -857,79 +827,79 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -937,23 +907,23 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -961,145 +931,65 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
         <v>4</v>
       </c>
     </row>
